--- a/data/trans_camb/P12_2_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.25113083574342</v>
+        <v>-11.39945786633629</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.11563470214757</v>
+        <v>-12.08255239793361</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.07419541046212</v>
+        <v>-9.92482446566768</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-13.25635982442942</v>
+        <v>-13.18236708827302</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-13.6454864215848</v>
+        <v>-13.61548505948577</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-12.93379149571946</v>
+        <v>-12.74101194640353</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-12.53224376676984</v>
+        <v>-12.13151370870794</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-12.3155438755721</v>
+        <v>-12.58772967616932</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-10.63323572078262</v>
+        <v>-10.76384073043703</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.780426020205775</v>
+        <v>-2.635823958095766</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-3.710214335163475</v>
+        <v>-3.218207357923572</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6940894110011806</v>
+        <v>0.8662253778992561</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-4.931613776524879</v>
+        <v>-4.722204805557661</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-4.654703181203219</v>
+        <v>-4.464050834510785</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-3.713690220239829</v>
+        <v>-3.366342824492676</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-6.262896306543932</v>
+        <v>-5.841508254488724</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-6.312705318494621</v>
+        <v>-6.206060853438625</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-3.554788539021082</v>
+        <v>-3.767688408166598</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3943731147566285</v>
+        <v>-0.3849258215460329</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4008573887362459</v>
+        <v>-0.4002891578706489</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3401424172198425</v>
+        <v>-0.3405643147543742</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3300218751890583</v>
+        <v>-0.3216156259623367</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3312976734670202</v>
+        <v>-0.3329488472033099</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3128253636702882</v>
+        <v>-0.3102117590733538</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3441989383282548</v>
+        <v>-0.3350604515698518</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3450689516936238</v>
+        <v>-0.3507784316028277</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3017479696006969</v>
+        <v>-0.3032225131445337</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1099317636721636</v>
+        <v>-0.1125027643442862</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1466033920031252</v>
+        <v>-0.1368197631410647</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.03208762403906482</v>
+        <v>0.0326330862193563</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.1399121957713942</v>
+        <v>-0.1275646698438619</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1277871947296985</v>
+        <v>-0.1215626632141867</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.10140733388315</v>
+        <v>-0.09301269376678663</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1919354631616839</v>
+        <v>-0.1827499454307809</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1950924985183226</v>
+        <v>-0.192734529943786</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1109439227229706</v>
+        <v>-0.1149196626019677</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-8.067120305264378</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-7.356187185899049</v>
+        <v>-7.356187185899047</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-3.418603812888263</v>
@@ -878,7 +878,7 @@
         <v>-6.072452022794189</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-6.093141407318623</v>
+        <v>-6.093141407318625</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.620890285159041</v>
+        <v>-6.726783294840155</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.783761277527932</v>
+        <v>-7.686531196692243</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.634043309942117</v>
+        <v>-8.828702184660573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.791718910862536</v>
+        <v>-8.512912581322196</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-11.94703330655678</v>
+        <v>-12.28532992113309</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-11.14323128666385</v>
+        <v>-10.8133512349525</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-5.76697392573729</v>
+        <v>-6.078178876777194</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.525300047728125</v>
+        <v>-8.811278363556664</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-8.452276747721536</v>
+        <v>-8.44319690486517</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.238490514785615</v>
+        <v>0.3105167675653611</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.158013485425131</v>
+        <v>-1.264775192007958</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.119735511855918</v>
+        <v>-2.238913623607781</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.1765253572775645</v>
+        <v>-0.5164999191148634</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-4.134161162807632</v>
+        <v>-4.120635274163215</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-4.004262893257577</v>
+        <v>-3.966399898122593</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-1.072222725615285</v>
+        <v>-0.7777178312238597</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-3.696154665700816</v>
+        <v>-3.583003414758489</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-3.642923428230268</v>
+        <v>-3.806290637053741</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.2882323356716427</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2628312128735515</v>
+        <v>-0.2628312128735514</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1451426670713206</v>
@@ -983,7 +983,7 @@
         <v>-0.2578163280951655</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2586947312721055</v>
+        <v>-0.2586947312721056</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3205756710565594</v>
+        <v>-0.3182886009117555</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.378168157294981</v>
+        <v>-0.3693831375658438</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.412260538332769</v>
+        <v>-0.4250798817609792</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2596116305112385</v>
+        <v>-0.2802907792984484</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4026451855596923</v>
+        <v>-0.40015460867411</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3674255053713095</v>
+        <v>-0.3564339361636181</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2325589567223465</v>
+        <v>-0.2434239260191087</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3434070891110867</v>
+        <v>-0.3498662393443577</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3399386980469764</v>
+        <v>-0.3384882034864066</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.01645925294480657</v>
+        <v>0.02579553018315026</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.07325549440326937</v>
+        <v>-0.07212500625804007</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1175767599854361</v>
+        <v>-0.1233063354537558</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.008074289378277432</v>
+        <v>-0.01474597846870106</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1546647794653439</v>
+        <v>-0.1560129615574168</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1566911064348601</v>
+        <v>-0.1564220811152126</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.04655481241263497</v>
+        <v>-0.03807264643839475</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.16309228683765</v>
+        <v>-0.159976857032585</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1652612119039695</v>
+        <v>-0.1717115663198753</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-2.485486099501508</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-2.247003539845377</v>
+        <v>-2.247003539845374</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-2.322887381994412</v>
@@ -1083,7 +1083,7 @@
         <v>-6.807569652985229</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-3.204100836356632</v>
+        <v>-3.20410083635663</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.7291130243779087</v>
@@ -1092,7 +1092,7 @@
         <v>-4.451099764661046</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-2.449146847091535</v>
+        <v>-2.449146847091532</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.957331824093355</v>
+        <v>-2.633054135958605</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.597564821479793</v>
+        <v>-5.565776154324118</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.238161578671785</v>
+        <v>-5.041040354153416</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.230929369196069</v>
+        <v>-6.39429146510969</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.69186331120025</v>
+        <v>-10.62484934955337</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.844111451772322</v>
+        <v>-6.688749123156898</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.302560181572338</v>
+        <v>-3.429940219965542</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-7.055801058839439</v>
+        <v>-7.178065325160938</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-4.853092795888593</v>
+        <v>-4.78198607086456</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.474097550727573</v>
+        <v>3.853863567294831</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7403071053245005</v>
+        <v>1.034194129359346</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8912984622272613</v>
+        <v>0.7822912870010212</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.404472288005923</v>
+        <v>1.722765316056164</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-2.876253533764179</v>
+        <v>-2.845206069775849</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2176053205125756</v>
+        <v>0.172537748718443</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.796047428649348</v>
+        <v>1.935733302362079</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-1.936974007858185</v>
+        <v>-2.084744421699264</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.2865132920037621</v>
+        <v>-0.3167064561807479</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.1644394979436891</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1486615169740731</v>
+        <v>-0.1486615169740729</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.09598124291187672</v>
@@ -1188,7 +1188,7 @@
         <v>-0.2812874190834394</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1323928069317108</v>
+        <v>-0.1323928069317107</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.03761409869540205</v>
@@ -1197,7 +1197,7 @@
         <v>-0.2296270951871836</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1263486567183931</v>
+        <v>-0.1263486567183929</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1866831829433449</v>
+        <v>-0.1613047942784263</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3427922754716827</v>
+        <v>-0.334738232414233</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3134771956216669</v>
+        <v>-0.3124498561785499</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2372610664814025</v>
+        <v>-0.2448764305731799</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4141706618477193</v>
+        <v>-0.4128848072041297</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2566778489669783</v>
+        <v>-0.2528450258241728</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1619309221492054</v>
+        <v>-0.1663828623077578</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.34083767221095</v>
+        <v>-0.3434742709126514</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2366352674365916</v>
+        <v>-0.2322973318666006</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2513047806076764</v>
+        <v>0.2873782512741948</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.05279792896582206</v>
+        <v>0.07637450807015575</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.06545905627364869</v>
+        <v>0.0545821663166729</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.06257786525205215</v>
+        <v>0.07818425660790743</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1282664031202644</v>
+        <v>-0.1157965344587239</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01287401453315968</v>
+        <v>0.01049431793269734</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09725163765778058</v>
+        <v>0.1052497852240556</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1042269255318235</v>
+        <v>-0.1090758649600637</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.01548102204373919</v>
+        <v>-0.0144223931564051</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-6.350657685700106</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.326407262719107</v>
+        <v>1.326407262719109</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.916615881303496</v>
@@ -1306,7 +1306,7 @@
         <v>-7.099282849681154</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.128897117645103</v>
+        <v>1.1288971176451</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.581924767762617</v>
+        <v>-8.577599104703536</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.11205534086222</v>
+        <v>-11.38632846360578</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.556137339708199</v>
+        <v>-3.308557489538955</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.613501303871557</v>
+        <v>-4.639261177655533</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-14.33424652045092</v>
+        <v>-14.16376507278511</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.033205202738662</v>
+        <v>-5.271694365189853</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.966950993050457</v>
+        <v>-4.914618281945915</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-11.061823688059</v>
+        <v>-11.05320353552033</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.585972478809305</v>
+        <v>-2.599147760394786</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.13276305536059</v>
+        <v>2.204706225697237</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.670516159728201</v>
+        <v>-0.979859820411955</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.532665821625861</v>
+        <v>6.333734719012932</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.403401798173885</v>
+        <v>8.657654180481712</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-2.38902070635294</v>
+        <v>-1.757604141355829</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.65260265522858</v>
+        <v>5.543544823155795</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.454108052397996</v>
+        <v>3.284375030044677</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-3.255982311032904</v>
+        <v>-3.284807609000625</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.780115456902531</v>
+        <v>4.369156964151775</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.3122500052961717</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.06521697362802555</v>
+        <v>0.06521697362802568</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.07680719864288664</v>
@@ -1411,7 +1411,7 @@
         <v>-0.317846209934583</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.05054252349808633</v>
+        <v>0.05054252349808621</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3646349787546473</v>
+        <v>-0.370290222748573</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4799003249929619</v>
+        <v>-0.4959294862240158</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.155697021728868</v>
+        <v>-0.1366220057921859</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.16680587938066</v>
+        <v>-0.1698409745342366</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5038199340847154</v>
+        <v>-0.5017607876457293</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1711545891929201</v>
+        <v>-0.1783123622571664</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2002126610648707</v>
+        <v>-0.2033734873934034</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4530961524637537</v>
+        <v>-0.4498646823710313</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1033367754509387</v>
+        <v>-0.1036941757378286</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.118719088643874</v>
+        <v>0.1263652460718455</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.09443361050679235</v>
+        <v>-0.0555239536889113</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3178842412215199</v>
+        <v>0.370463722166371</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3867808427961019</v>
+        <v>0.4107320495062351</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1039966827465618</v>
+        <v>-0.08014771103669761</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2606331107608775</v>
+        <v>0.2742881497106588</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1705317155506284</v>
+        <v>0.1618480952070359</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1616776214905457</v>
+        <v>-0.1619961353125558</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2398569898845805</v>
+        <v>0.2224030788333245</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.209649209836253</v>
+        <v>-4.167437622415035</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.747748505421248</v>
+        <v>-5.51503869141925</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.297086786606621</v>
+        <v>-4.359950562510751</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.28219439177303</v>
+        <v>-6.217424484668505</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.408956296384112</v>
+        <v>-9.423536783599234</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-7.990853586797897</v>
+        <v>-7.844637596239595</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.445277059605169</v>
+        <v>-4.497902168747611</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.869471548275255</v>
+        <v>-6.786851061420841</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.67190459285245</v>
+        <v>-5.508548524968228</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.1985385249899386</v>
+        <v>-0.1972583323586024</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.847285401977435</v>
+        <v>-1.891364497105495</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.5236375922188747</v>
+        <v>-0.6185691430450764</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-1.89059364938796</v>
+        <v>-1.724281604844072</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-5.132081365336068</v>
+        <v>-5.105500884183748</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-3.988839249361317</v>
+        <v>-3.980146219846513</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-1.639965618401318</v>
+        <v>-1.532492393772482</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-4.013358665897202</v>
+        <v>-3.79567842273698</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-2.862579564994364</v>
+        <v>-2.754719492121893</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2061567254073098</v>
+        <v>-0.2068322105018127</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2784292012414427</v>
+        <v>-0.2677277821274834</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2113209695644392</v>
+        <v>-0.2139397546800027</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2035877853061967</v>
+        <v>-0.2029663442883357</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3050856736353398</v>
+        <v>-0.3107168421759116</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.25705152889313</v>
+        <v>-0.2555666988753738</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1759156028611314</v>
+        <v>-0.1751551544163737</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2732268716176093</v>
+        <v>-0.2695774601327298</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.222330840029077</v>
+        <v>-0.2187227944485848</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.009401890730490843</v>
+        <v>-0.01064153522835627</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1010469485283173</v>
+        <v>-0.1024170258608802</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.02888096150846449</v>
+        <v>-0.03045786102837662</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.06400019252105731</v>
+        <v>-0.06017654491550188</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1818490983835534</v>
+        <v>-0.1775298891743278</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1392993296430606</v>
+        <v>-0.1399646876135041</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.07009466849865738</v>
+        <v>-0.06319944620404613</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1678575432081757</v>
+        <v>-0.1605728441529788</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1202036727983274</v>
+        <v>-0.1162429834214992</v>
       </c>
     </row>
     <row r="34">
